--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_13_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_13_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[5.306286087001791, 5.875863555045825]</t>
+          <t>[5.304384964234355, 5.877764677813261]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.02481053680735279, 0.3128320777487055]</t>
+          <t>[-0.024748404868235596, 0.3127699458095883]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.09265219210267928</v>
+        <v>0.09253584491793432</v>
       </c>
       <c r="V2" t="n">
-        <v>0.09265219210267928</v>
+        <v>0.09253584491793432</v>
       </c>
       <c r="W2" t="n">
         <v>10.82714714714741</v>
